--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.295943</v>
+        <v>0.05881233333333333</v>
       </c>
       <c r="N2">
-        <v>0.8878290000000001</v>
+        <v>0.176437</v>
       </c>
       <c r="O2">
-        <v>0.02818120871217195</v>
+        <v>0.005710212285055511</v>
       </c>
       <c r="P2">
-        <v>0.02818120871217194</v>
+        <v>0.005710212285055511</v>
       </c>
       <c r="Q2">
-        <v>0.1427834219146667</v>
+        <v>0.02261606713811111</v>
       </c>
       <c r="R2">
-        <v>1.285050797232</v>
+        <v>0.203544604243</v>
       </c>
       <c r="S2">
-        <v>0.005917650340759495</v>
+        <v>0.001133391599687547</v>
       </c>
       <c r="T2">
-        <v>0.005917650340759494</v>
+        <v>0.001133391599687547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>30.616462</v>
       </c>
       <c r="O3">
-        <v>0.9718187912878281</v>
+        <v>0.990872081464405</v>
       </c>
       <c r="P3">
-        <v>0.9718187912878281</v>
+        <v>0.990872081464405</v>
       </c>
       <c r="Q3">
-        <v>4.923834670055111</v>
+        <v>3.924482733913111</v>
       </c>
       <c r="R3">
-        <v>44.314512030496</v>
+        <v>35.320344605218</v>
       </c>
       <c r="S3">
-        <v>0.2040680320052061</v>
+        <v>0.1966732649214904</v>
       </c>
       <c r="T3">
-        <v>0.204068032005206</v>
+        <v>0.1966732649214904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.110828</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>3.332484</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.4834669468781523</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.4834669468781522</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.295943</v>
+        <v>0.03520066666666666</v>
       </c>
       <c r="N4">
-        <v>0.8878290000000001</v>
+        <v>0.105602</v>
       </c>
       <c r="O4">
-        <v>0.02818120871217195</v>
+        <v>0.003417706250539468</v>
       </c>
       <c r="P4">
-        <v>0.02818120871217194</v>
+        <v>0.003417706250539468</v>
       </c>
       <c r="Q4">
-        <v>0.328741770804</v>
+        <v>0.01353628729755556</v>
       </c>
       <c r="R4">
-        <v>2.958675937236</v>
+        <v>0.121826585678</v>
       </c>
       <c r="S4">
-        <v>0.01362468293540976</v>
+        <v>0.0006783634935427625</v>
       </c>
       <c r="T4">
-        <v>0.01362468293540975</v>
+        <v>0.0006783634935427624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.20548733333333</v>
+        <v>0.05881233333333333</v>
       </c>
       <c r="N5">
-        <v>30.616462</v>
+        <v>0.176437</v>
       </c>
       <c r="O5">
-        <v>0.9718187912878281</v>
+        <v>0.005710212285055511</v>
       </c>
       <c r="P5">
-        <v>0.9718187912878281</v>
+        <v>0.005710212285055511</v>
       </c>
       <c r="Q5">
-        <v>11.336541083512</v>
+        <v>0.065330386612</v>
       </c>
       <c r="R5">
-        <v>102.028869751608</v>
+        <v>0.5879734795080001</v>
       </c>
       <c r="S5">
-        <v>0.4698422639427425</v>
+        <v>0.003273995913533745</v>
       </c>
       <c r="T5">
-        <v>0.4698422639427425</v>
+        <v>0.003273995913533745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.110828</v>
+      </c>
+      <c r="H6">
+        <v>3.332484</v>
+      </c>
+      <c r="I6">
+        <v>0.5733580031870772</v>
+      </c>
+      <c r="J6">
+        <v>0.5733580031870772</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.7043323333333333</v>
-      </c>
-      <c r="H6">
-        <v>2.112997</v>
-      </c>
-      <c r="I6">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="J6">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.295943</v>
+        <v>10.20548733333333</v>
       </c>
       <c r="N6">
-        <v>0.8878290000000001</v>
+        <v>30.616462</v>
       </c>
       <c r="O6">
-        <v>0.02818120871217195</v>
+        <v>0.990872081464405</v>
       </c>
       <c r="P6">
-        <v>0.02818120871217194</v>
+        <v>0.990872081464405</v>
       </c>
       <c r="Q6">
-        <v>0.2084422237236667</v>
+        <v>11.336541083512</v>
       </c>
       <c r="R6">
-        <v>1.875980013513</v>
+        <v>102.028869751608</v>
       </c>
       <c r="S6">
-        <v>0.008638875436002696</v>
+        <v>0.5681244380422541</v>
       </c>
       <c r="T6">
-        <v>0.008638875436002695</v>
+        <v>0.5681244380422541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.110828</v>
+      </c>
+      <c r="H7">
+        <v>3.332484</v>
+      </c>
+      <c r="I7">
+        <v>0.5733580031870772</v>
+      </c>
+      <c r="J7">
+        <v>0.5733580031870772</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03520066666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.105602</v>
+      </c>
+      <c r="O7">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="P7">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="Q7">
+        <v>0.039101886152</v>
+      </c>
+      <c r="R7">
+        <v>0.351916975368</v>
+      </c>
+      <c r="S7">
+        <v>0.001959569231289302</v>
+      </c>
+      <c r="T7">
+        <v>0.001959569231289302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.442033</v>
+      </c>
+      <c r="H8">
+        <v>1.326099</v>
+      </c>
+      <c r="I8">
+        <v>0.2281569767982021</v>
+      </c>
+      <c r="J8">
+        <v>0.2281569767982021</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05881233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.176437</v>
+      </c>
+      <c r="O8">
+        <v>0.005710212285055511</v>
+      </c>
+      <c r="P8">
+        <v>0.005710212285055511</v>
+      </c>
+      <c r="Q8">
+        <v>0.02599699214033333</v>
+      </c>
+      <c r="R8">
+        <v>0.233972929263</v>
+      </c>
+      <c r="S8">
+        <v>0.001302824771834219</v>
+      </c>
+      <c r="T8">
+        <v>0.001302824771834219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.7043323333333333</v>
-      </c>
-      <c r="H7">
-        <v>2.112997</v>
-      </c>
-      <c r="I7">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="J7">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="K7">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.442033</v>
+      </c>
+      <c r="H9">
+        <v>1.326099</v>
+      </c>
+      <c r="I9">
+        <v>0.2281569767982021</v>
+      </c>
+      <c r="J9">
+        <v>0.2281569767982021</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>10.20548733333333</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>30.616462</v>
       </c>
-      <c r="O7">
-        <v>0.9718187912878281</v>
-      </c>
-      <c r="P7">
-        <v>0.9718187912878281</v>
-      </c>
-      <c r="Q7">
-        <v>7.188054706290444</v>
-      </c>
-      <c r="R7">
-        <v>64.692492356614</v>
-      </c>
-      <c r="S7">
-        <v>0.2979084953398796</v>
-      </c>
-      <c r="T7">
-        <v>0.2979084953398796</v>
+      <c r="O9">
+        <v>0.990872081464405</v>
+      </c>
+      <c r="P9">
+        <v>0.990872081464405</v>
+      </c>
+      <c r="Q9">
+        <v>4.511162182415332</v>
+      </c>
+      <c r="R9">
+        <v>40.600459641738</v>
+      </c>
+      <c r="S9">
+        <v>0.2260743785006605</v>
+      </c>
+      <c r="T9">
+        <v>0.2260743785006605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.442033</v>
+      </c>
+      <c r="H10">
+        <v>1.326099</v>
+      </c>
+      <c r="I10">
+        <v>0.2281569767982021</v>
+      </c>
+      <c r="J10">
+        <v>0.2281569767982021</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03520066666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.105602</v>
+      </c>
+      <c r="O10">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="P10">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="Q10">
+        <v>0.01555985628866666</v>
+      </c>
+      <c r="R10">
+        <v>0.140038706598</v>
+      </c>
+      <c r="S10">
+        <v>0.0007797735257074038</v>
+      </c>
+      <c r="T10">
+        <v>0.0007797735257074037</v>
       </c>
     </row>
   </sheetData>
